--- a/data/etymology.xlsx
+++ b/data/etymology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\etymology-dictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE4FD34-EAD4-4915-81DB-C1C1434493C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBE217-5778-4A9D-B7CD-87E9BAE12BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-8920" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>num</t>
   </si>
@@ -79,18 +79,9 @@
     <t>own</t>
   </si>
   <si>
-    <t>creare「作る・生産する」</t>
-  </si>
-  <si>
     <t>ラテン語</t>
   </si>
   <si>
-    <t>過去分詞</t>
-  </si>
-  <si>
-    <t>creatus</t>
-  </si>
-  <si>
     <t>related1</t>
   </si>
   <si>
@@ -115,21 +106,9 @@
     <t>15世紀初頭</t>
   </si>
   <si>
-    <t>creature「生き物」</t>
-  </si>
-  <si>
-    <t>creation「創造」</t>
-  </si>
-  <si>
     <t>note1</t>
   </si>
   <si>
-    <t>ラテン語creareは、ローマ神話の豊穣の女神セレスCeres＝農作物（特に穀物）の収穫を司る神に関連する。</t>
-  </si>
-  <si>
-    <t>Ceresはcereal「加工食品のシリアル・穀物」の語源。</t>
-  </si>
-  <si>
     <t>note2</t>
   </si>
   <si>
@@ -139,18 +118,9 @@
     <t>note4</t>
   </si>
   <si>
-    <t>increase：in「中に」＋crescere「成長する」→膨らんで大きくなるイメージ→「成長する」</t>
-  </si>
-  <si>
     <t>note5</t>
   </si>
   <si>
-    <t>decrease：de「離れて」＋crescere「成長する」→成長の程度が減るイメージ→「減少する」</t>
-  </si>
-  <si>
-    <t>increscere「増加する」</t>
-  </si>
-  <si>
     <t>14世紀半ば</t>
   </si>
   <si>
@@ -172,9 +142,6 @@
     <t>1727年から</t>
   </si>
   <si>
-    <t>英語での意味の変遷</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -202,24 +169,9 @@
     <t>im</t>
   </si>
   <si>
-    <t>emprouwer「利益に変える」</t>
-  </si>
-  <si>
-    <t>proud「誇りに思う」</t>
-  </si>
-  <si>
-    <t>prode「有利な・利益をもたらす」</t>
-  </si>
-  <si>
     <t>note6</t>
   </si>
   <si>
-    <t>またCeresは、ラテン語crescere「成長する」と関連する。</t>
-  </si>
-  <si>
-    <t>crescereはincrease, decreaseの語源。</t>
-  </si>
-  <si>
     <t>pro</t>
   </si>
   <si>
@@ -247,242 +199,352 @@
     <t>アングロ・フランス語</t>
   </si>
   <si>
-    <t>in「中に」＋crescere「成長する」</t>
-  </si>
-  <si>
     <t>関連語</t>
   </si>
   <si>
     <t>補足</t>
   </si>
   <si>
-    <t>「生み出す・存在させる」</t>
-  </si>
-  <si>
-    <t>（自動詞）「増加する」</t>
-  </si>
-  <si>
-    <t>「利益に変える」</t>
-  </si>
-  <si>
-    <t>en「〜させる」＋prou「利益」＝「利益にさせる」</t>
-  </si>
-  <si>
-    <t>pro「前に」＋esse「存在する」</t>
-  </si>
-  <si>
-    <t>prodesse「前に存在する・役に立つ」</t>
-  </si>
-  <si>
-    <t>prove部分の語源となるラテン語prodeは、後期古英語prud, prute「優れた・プライドを持つ・誇りに思う」となり、現代英語のproud「誇りに思う」となった。</t>
-  </si>
-  <si>
     <t>h6</t>
   </si>
   <si>
-    <t>in+prove：en「〜させる」＋prode「利益」→「利益にさせる」→「良くする」「良くなる」</t>
-  </si>
-  <si>
     <t>古英語</t>
   </si>
   <si>
-    <t>mænan「何かをしようと意図する・ある言葉を伝える」</t>
-  </si>
-  <si>
     <t>中英語</t>
   </si>
   <si>
-    <t>mēnen「意図する・心に抱く」</t>
-  </si>
-  <si>
-    <t>「特定の種類の意図を持つ」</t>
-  </si>
-  <si>
     <t>1888年までに</t>
   </si>
   <si>
-    <t>「重要である・意味を持つ」</t>
-  </si>
-  <si>
-    <t>agan「所有する」</t>
-  </si>
-  <si>
-    <t>ounen「所有する」</t>
-  </si>
-  <si>
-    <t>geagnian</t>
-  </si>
-  <si>
     <t>1200年頃</t>
   </si>
   <si>
-    <t>「所有する」</t>
-  </si>
-  <si>
     <t>1300年頃</t>
   </si>
   <si>
-    <t>この語は使われなくなる</t>
-  </si>
-  <si>
     <t>17世紀初期</t>
   </si>
   <si>
-    <t>名詞owner「所有者」から動詞ownが再び作られ、使われるようになった。</t>
-  </si>
-  <si>
     <t>覚えるときのイメージ</t>
   </si>
   <si>
-    <t>owe「借りがある・－を借りている・～のおかげである」</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ownとoweはどちらも古英語agan「所有する」に由来する。</t>
-    <rPh sb="12" eb="15">
-      <t>コエイゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ユライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>own：そのまま「所有する」という意味で残った。</t>
-    <rPh sb="9" eb="11">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>owe：agan to geldanne「支払うことを所有している」という表現から「借りがある」となった。</t>
-    <rPh sb="21" eb="23">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>be owing to：1650年代be owing to「～による・～のおかげである」が使われ始めた。</t>
-    <rPh sb="45" eb="46">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英語での意味の変遷</t>
-    <phoneticPr fontId="1"/>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
   </si>
   <si>
     <t>img1</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img2</t>
   </si>
   <si>
     <t>img3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img2</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>img4</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>img5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>owner「所有者・オーナー」から-er「〜する人・〜するもの」を取り除いてown「所有する」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mean to do「〜するつもり」。</t>
-  </si>
-  <si>
-    <t>mean：もともとは「意図する」と言う意味。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「意図する」から「意味する」という意味にもなった。</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <t>日本語でも使われるcreatorクリエイターやcreatureクリーチャーと関連させて覚える。</t>
+  </si>
+  <si>
+    <t>creator：クリエイター・創造主・作り手</t>
+  </si>
+  <si>
+    <t>creature：生き物・神の創造物</t>
+  </si>
+  <si>
+    <t>creation：創造</t>
+  </si>
+  <si>
+    <t>2. increase：増加する</t>
+  </si>
+  <si>
+    <t>223. decrease：減少する</t>
+  </si>
+  <si>
+    <t>783. concrete：具体的な</t>
   </si>
   <si>
     <t>単語の歴史</t>
-    <rPh sb="0" eb="2">
-      <t>タンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ought：oweの過去形で「－すべきである」</t>
-    <rPh sb="10" eb="13">
-      <t>カコケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要素</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他動詞「増やす」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他動詞「より良くする」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動詞「良くなる」</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creare（作る・育てる・生産する）→過去分詞creatusに由来する。</t>
+  </si>
+  <si>
+    <t>英語における変遷</t>
+  </si>
+  <si>
+    <t>生み出す・存在させるという意味で使われ、現代では「生み出す」が残っている。</t>
+  </si>
+  <si>
+    <t>【create / cereal / increase / decrease の関係】</t>
+  </si>
+  <si>
+    <t>ラテン語creareから英語のcreateが生まれた。</t>
+  </si>
+  <si>
+    <t>このラテン語は、ローマ神話で農作物（特に穀物）の豊穣と収穫を司る神セレスCeresと関係がある。createの創り出すという意味と、Ceresの農作物を実らせるというイメージは似ている。</t>
+  </si>
+  <si>
+    <t>Ceresは穀物の豊穣と収穫を司る女神なので、英語のcereal「加工食品のシリアル・穀物」の語源となった。つまりcreateとcerealは語源的に関係がある。</t>
+  </si>
+  <si>
+    <t>またラテン語creareやCeresは、別のラテン語crescere「成長する」と関係があり、このcrescereはincrease, decreaseの語源である。</t>
+  </si>
+  <si>
+    <t>increaseは、in（中に）crescere（成長する）から構成され、膨らんで大きくなるイメージから「増加する」となる。</t>
+  </si>
+  <si>
+    <t>もとになったラテン語からイメージをつかむ。</t>
+  </si>
+  <si>
+    <t>in（中に）crescere（成長する）から構成され、膨らんで大きくなるイメージから「増加する」となる。</t>
+  </si>
+  <si>
+    <t>in（中に）＋crescere（成長する）→increscere（増加する・成長する）</t>
+  </si>
+  <si>
+    <t>増加する（自動詞）</t>
+  </si>
+  <si>
+    <t>増やす（他動詞）</t>
+  </si>
+  <si>
+    <t>【decreaseと関連させる】</t>
+  </si>
+  <si>
+    <t>de（離れて）crescere（成長する）から構成され、成長から離れてしまうイメージから「減少する」となる。increaseの対義語として覚えればよい。</t>
+  </si>
+  <si>
+    <t>【concludeと関連させる】</t>
+  </si>
+  <si>
+    <t>concreteは、con（共に）crescere（成長する）から構成され、共に成長するという意味からギュッと固まるイメージとなり「具体的な」となる。詳しい変遷は783. concreteへ。</t>
+  </si>
+  <si>
+    <t>もとになった古フランス語やラテン語からイメージをつかむ。</t>
+  </si>
+  <si>
+    <t>en（〜させる）prode（利益）から構成され、利益にさせるという意味を経て「良くする・良くなる」となる。</t>
+  </si>
+  <si>
+    <t>en（〜させる）は、enjoy（楽しむ・楽しませる）・30. encourage（勇気を出させる・励ます）・716. endanger（危険にさらす）などにも見られる。</t>
+  </si>
+  <si>
+    <t>proud：誇りに思う</t>
+  </si>
+  <si>
+    <t>pro（前に）＋esse（存在する）→prodesse（他のものより前に存在する→役に立つ）</t>
+  </si>
+  <si>
+    <t>→prode（有利な・利益をもたらす）</t>
+  </si>
+  <si>
+    <t>en（〜させる）＋prou（利益）＝利益にさせる</t>
+  </si>
+  <si>
+    <t>emprouwer（利益に変える）</t>
+  </si>
+  <si>
+    <t>利益に変える</t>
+  </si>
+  <si>
+    <t>より良くする（他動詞）</t>
+  </si>
+  <si>
+    <t>良くなる（自動詞）</t>
+  </si>
+  <si>
+    <t>【proudとの関係】</t>
+  </si>
+  <si>
+    <t>prove部分の語源であるラテン語prode（有利な・利益をもたらす）は、後期古英語prud, prute「優れた・誇りに思う」となり、現代英語のproud「誇りに思う」となった。</t>
+  </si>
+  <si>
+    <t>meanは古い英語では「意図する」という意味だった。</t>
+  </si>
+  <si>
+    <t>mean to do（〜するつもり）にその意味が残っており、これが重要な表現。</t>
+  </si>
+  <si>
+    <t>「意図する」から言葉などで何かを伝えようと意図する→「意味する」となったと覚えればよい。</t>
+  </si>
+  <si>
+    <t>mænan（何かをしようと意図する・特定の意味をある言葉を使って伝える）</t>
+  </si>
+  <si>
+    <t>mēnen（意図する・心に抱く）</t>
+  </si>
+  <si>
+    <t>特定の種類の意図を持つ</t>
+  </si>
+  <si>
+    <t>重要である・意味を持つ</t>
+  </si>
+  <si>
+    <t>日本語でも使うowner（所有者・オーナー）からer（〜する人・〜するもの）を除いてown（所有する）となる。</t>
+  </si>
+  <si>
+    <t>737. owe：借りがある・〜を借りている・～のおかげである</t>
+  </si>
+  <si>
+    <t>ought：〜すべき（oweの過去形）</t>
+  </si>
+  <si>
+    <t>own（形容詞）：自身の</t>
+  </si>
+  <si>
+    <t>agan（所有する）→geagnian</t>
+  </si>
+  <si>
+    <t>ounen（所有する）</t>
+  </si>
+  <si>
+    <t>所有する</t>
+  </si>
+  <si>
+    <t>事実や罪を認める</t>
+  </si>
+  <si>
+    <t>1300年以降</t>
+  </si>
+  <si>
+    <t>この単語は使われなくなっていく</t>
+  </si>
+  <si>
+    <t>名詞owner（所有者）から動詞ownが再び作られて使われるようになった。</t>
+  </si>
+  <si>
+    <t>【own / oweはもともと同じ単語から生まれた】</t>
+  </si>
+  <si>
+    <t>ownとoweはどちらも古英語agan（所有する）から生まれた。</t>
+  </si>
+  <si>
+    <t>ownはそのまま「所有する」という意味で残った。</t>
+  </si>
+  <si>
+    <t>oweは古英語後期のagan to geldanne「支払うことを所有している」という表現から「借りがある」となった。</t>
+  </si>
+  <si>
+    <t>be owing to（～による・～のおかげである）は1650年代に使われ始めた表現。</t>
+  </si>
+  <si>
+    <t>note7</t>
+  </si>
+  <si>
+    <t>decreaseは、de（離れて）crescere（成長する）から構成され、成長から離れてしまうイメージから「減少する」となる。</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>clude</t>
+  </si>
+  <si>
+    <t>in（中に）claudere（閉じる）から構成され、中に閉じ込めるというイメージから「〜を含む」となる。</t>
+  </si>
+  <si>
+    <t>cludeはclose（閉める）と関連し、どちらもラテン語claudere（閉じる）に由来する。</t>
+  </si>
+  <si>
+    <t>close：閉める</t>
+  </si>
+  <si>
+    <t>413. conclude：結論づける・締めくくる</t>
+  </si>
+  <si>
+    <t>1009. exclude：除外する・締め出す</t>
+  </si>
+  <si>
+    <t>in（中に）＋claudere（閉じる）→inclaudere（閉じ込める・囲い込む）</t>
+  </si>
+  <si>
+    <t>閉じ込める・含む</t>
+  </si>
+  <si>
+    <t>【include / exclude / concludeの関係】</t>
+  </si>
+  <si>
+    <t>includeはin（中に）clude（閉じる）から中に閉じ込める→「を含む」となる。</t>
+  </si>
+  <si>
+    <t>excludeはex（外に）clude（閉じる）ので外に出して閉じる→「を除外する」となる。</t>
+  </si>
+  <si>
+    <t>concludeはcon（共に）clude（閉じる）ので共に閉じる→話を共に閉じる→「結論づける」となる。</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>sider</t>
+  </si>
+  <si>
+    <t>con（共に）sidus（天体・星）から構成され、星を観察する→よく見る→「考慮する・よく考える」となった。</t>
+  </si>
+  <si>
+    <t>consider O C（OをCと見なす）は「見なす」ではなく「OをCと考える」という訳でもよい。</t>
+  </si>
+  <si>
+    <t>239. desire：強く望む</t>
+  </si>
+  <si>
+    <t>com（共に）＋sidus（天体・星）→considerare（星を観察する→よく見る）</t>
+  </si>
+  <si>
+    <t>considerer（熟考する・検討する）</t>
+  </si>
+  <si>
+    <t>consideren（熟考する・注意深く見る）</t>
+  </si>
+  <si>
+    <t>熟考する・注意深く見る</t>
+  </si>
+  <si>
+    <t>1530年代</t>
+  </si>
+  <si>
+    <t>特定の観点から見る・評価する</t>
+  </si>
+  <si>
+    <t>【desireと関連させる】</t>
+  </si>
+  <si>
+    <t>desireはde（〜から）sidus（天体・星）から「星から」となる。</t>
+  </si>
+  <si>
+    <t>占星術に強い関心のあったローマ人がdesiderare「星がもたらすものを待ち望む」という意味で使った可能性があり、ここから「強く望む」となったと考えられる。</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
@@ -846,15 +908,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B9A93-13D0-7044-AE25-7F1D2C2AFDF5}">
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="83.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="46.296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="66.8984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="142.19921875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="86.3984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="76.8984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="81.8984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="82.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -877,91 +985,91 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>56</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AK1" t="s">
         <v>6</v>
@@ -988,28 +1096,31 @@
         <v>13</v>
       </c>
       <c r="AS1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AT1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AU1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AV1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AW1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AX1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AY1" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,70 +1128,82 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
       </c>
       <c r="W2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AK2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AT2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="AU2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="AV2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="AW2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AX2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AY2" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1088,55 +1211,73 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>77</v>
+      <c r="AV3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1144,85 +1285,91 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="W4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AD4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AF4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>77</v>
-      </c>
       <c r="AT4" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1230,61 +1377,61 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>50</v>
-      </c>
       <c r="AK5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AM5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AN5" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AS5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1292,79 +1439,265 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="R6" t="s">
+        <v>129</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AK7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="AL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>108</v>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>162</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
